--- a/Proyectos/2015/12/P1390 - CNOM, Osiris Carrion _MO/Planeacion/Plan_de_proyecto.xlsx
+++ b/Proyectos/2015/12/P1390 - CNOM, Osiris Carrion _MO/Planeacion/Plan_de_proyecto.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,6 +31,7 @@
     <definedName function="false" hidden="false" localSheetId="4" name="Complej." vbProcedure="false">#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="Complej." vbProcedure="false">#ref!</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'Plan Riesgos'!$A$1:$F$24</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0" vbProcedure="false">'Plan Riesgos'!$A$1:$F$24</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -158,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="173">
   <si>
     <t>Plan del Proyecto</t>
   </si>
@@ -263,9 +264,6 @@
   </si>
   <si>
     <t>Carta de aceptación</t>
-  </si>
-  <si>
-    <t>Especificado en encuesta</t>
   </si>
   <si>
     <t>Ciclo de Vida</t>
@@ -1870,15 +1868,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>27360</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>232200</xdr:colOff>
+      <xdr:colOff>258840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1887,8 +1885,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="360" y="0"/>
-          <a:ext cx="9524880" cy="9363240"/>
+          <a:off x="27360" y="0"/>
+          <a:ext cx="9524520" cy="9362880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1914,15 +1912,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>27360</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>232200</xdr:colOff>
+      <xdr:colOff>258840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1931,8 +1929,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="360" y="0"/>
-          <a:ext cx="9524880" cy="9363240"/>
+          <a:off x="27360" y="0"/>
+          <a:ext cx="9524520" cy="9362880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1958,15 +1956,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
+      <xdr:colOff>27360</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>232200</xdr:colOff>
+      <xdr:colOff>258840</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1975,8 +1973,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="360" y="0"/>
-          <a:ext cx="9524880" cy="9363240"/>
+          <a:off x="27360" y="0"/>
+          <a:ext cx="9524520" cy="9362880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2010,7 +2008,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="C16:D18 B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5"/>
@@ -2145,8 +2143,8 @@
   </sheetPr>
   <dimension ref="A1:AMI30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="C16:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="22.5"/>
@@ -2154,7 +2152,8 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="28.5714285714286"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="57.4234693877551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.8571428571429"/>
-    <col collapsed="false" hidden="false" max="255" min="4" style="1" width="11.4183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.6377551020408"/>
+    <col collapsed="false" hidden="false" max="255" min="5" style="1" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="256" min="256" style="1" width="2.70918367346939"/>
     <col collapsed="false" hidden="false" max="257" min="257" style="1" width="28.5714285714286"/>
     <col collapsed="false" hidden="false" max="258" min="258" style="1" width="57.4234693877551"/>
@@ -4366,7 +4365,7 @@
         <v>42373</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A18" s="15" t="s">
         <v>33</v>
       </c>
@@ -4376,8 +4375,8 @@
       <c r="C18" s="16" t="n">
         <v>42369</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>35</v>
+      <c r="D18" s="8" t="n">
+        <v>42388</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
@@ -4405,7 +4404,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="12"/>
@@ -4419,39 +4418,39 @@
     </row>
     <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="53.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="53.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="21"/>
     </row>
     <row r="29" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="22"/>
     </row>
@@ -4493,7 +4492,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="C16:D18 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4509,7 +4508,7 @@
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="24"/>
       <c r="B1" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -4517,7 +4516,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -4526,109 +4525,109 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="D3" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="E3" s="29" t="s">
         <v>48</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="30" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="E4" s="32" t="s">
         <v>52</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="C5" s="30" t="n">
         <v>3313482553</v>
       </c>
       <c r="D5" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="32" t="s">
         <v>56</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="C6" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="D6" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="E6" s="33" t="s">
         <v>61</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>63</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>64</v>
       </c>
       <c r="C7" s="30" t="n">
         <v>3318039095</v>
       </c>
       <c r="D7" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="33" t="s">
         <v>65</v>
-      </c>
-      <c r="E7" s="33" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="C8" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="D8" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="E8" s="33" t="s">
         <v>70</v>
-      </c>
-      <c r="E8" s="33" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>11</v>
@@ -4637,10 +4636,10 @@
         <v>3312448000</v>
       </c>
       <c r="D9" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="33" t="s">
         <v>73</v>
-      </c>
-      <c r="E9" s="33" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4659,7 +4658,7 @@
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="34"/>
       <c r="C12" s="34"/>
@@ -4668,19 +4667,19 @@
     </row>
     <row r="13" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="C13" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="D13" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="E13" s="35" t="s">
         <v>79</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4711,9 +4710,30 @@
       <c r="D17" s="36"/>
       <c r="E17" s="37"/>
     </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0"/>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+    </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B21" s="38"/>
       <c r="C21" s="38"/>
@@ -4727,7 +4747,7 @@
     <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="39"/>
       <c r="B23" s="40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4756,7 +4776,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="C16:D18 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4771,19 +4791,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="C1" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="D1" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="E1" s="42" t="s">
         <v>86</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4868,8 +4888,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Página &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4884,7 +4904,7 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B7" activeCellId="1" sqref="C16:D18 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5966,7 +5986,7 @@
     </row>
     <row r="2" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="48"/>
       <c r="C2" s="48"/>
@@ -6993,19 +7013,19 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="C3" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="49" t="s">
+      <c r="E3" s="49" t="s">
         <v>91</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>92</v>
       </c>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
@@ -9053,70 +9073,70 @@
     </row>
     <row r="5" s="55" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="51" t="s">
+      <c r="E5" s="54" t="s">
         <v>94</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" s="55" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="C6" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="C6" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>98</v>
-      </c>
       <c r="E6" s="54" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" s="55" customFormat="true" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="B7" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="51" t="s">
+      <c r="D7" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="E7" s="54" t="s">
         <v>101</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="8" s="55" customFormat="true" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="51" t="s">
+      <c r="D8" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="E8" s="54" t="s">
         <v>105</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="9" s="55" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9170,7 +9190,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="C16:D18 E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9200,7 +9220,7 @@
     </row>
     <row r="2" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -9212,37 +9232,37 @@
     </row>
     <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D3" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>113</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>114</v>
       </c>
       <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="C4" s="35" t="s">
         <v>116</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>117</v>
       </c>
       <c r="D4" s="35" t="n">
         <v>1</v>
@@ -9251,22 +9271,22 @@
         <v>42361</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" s="35"/>
       <c r="J4" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>116</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>117</v>
       </c>
       <c r="D5" s="35" t="n">
         <v>1</v>
@@ -9275,22 +9295,22 @@
         <v>42361</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G5" s="35"/>
       <c r="J5" s="59" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>121</v>
-      </c>
       <c r="C6" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="35" t="n">
         <v>2</v>
@@ -9299,13 +9319,13 @@
         <v>42361</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J6" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9418,8 +9438,8 @@
   </sheetPr>
   <dimension ref="A1:JA43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="C16:D18 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9449,7 +9469,7 @@
       <c r="C2" s="65"/>
       <c r="D2" s="65"/>
       <c r="E2" s="64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2" s="65"/>
       <c r="G2" s="65"/>
@@ -9458,7 +9478,7 @@
       <c r="J2" s="65"/>
       <c r="K2" s="66"/>
       <c r="IR2" s="67" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="IS2" s="67"/>
       <c r="IT2" s="67"/>
@@ -9483,51 +9503,51 @@
       <c r="J3" s="71"/>
       <c r="K3" s="72"/>
       <c r="AE3" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF3" s="73" t="s">
         <v>125</v>
-      </c>
-      <c r="AF3" s="73" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="75" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="C4" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="D4" s="76" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="E4" s="76" t="s">
         <v>130</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="F4" s="76" t="s">
         <v>131</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="G4" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="H4" s="76" t="s">
         <v>133</v>
       </c>
-      <c r="H4" s="76" t="s">
+      <c r="I4" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="J4" s="77" t="s">
         <v>135</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="K4" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="K4" s="76" t="s">
-        <v>137</v>
-      </c>
       <c r="AE4" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF4" s="78" t="s">
         <v>125</v>
-      </c>
-      <c r="AF4" s="78" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9535,7 +9555,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="80" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C5" s="79" t="n">
         <v>1</v>
@@ -9551,19 +9571,19 @@
         <v>4</v>
       </c>
       <c r="G5" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="H5" s="80" t="s">
+      <c r="I5" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="J5" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="J5" s="83" t="s">
+      <c r="K5" s="84" t="s">
         <v>142</v>
-      </c>
-      <c r="K5" s="84" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9571,7 +9591,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" s="79" t="n">
         <v>4</v>
@@ -9587,19 +9607,19 @@
         <v>3</v>
       </c>
       <c r="G6" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="84" t="s">
+      <c r="I6" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="I6" s="82" t="s">
-        <v>141</v>
-      </c>
-      <c r="J6" s="83" t="s">
-        <v>147</v>
-      </c>
       <c r="K6" s="84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9607,7 +9627,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C7" s="79" t="n">
         <v>4</v>
@@ -9623,19 +9643,19 @@
         <v>3</v>
       </c>
       <c r="G7" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="80" t="s">
         <v>149</v>
       </c>
-      <c r="H7" s="80" t="s">
-        <v>150</v>
-      </c>
       <c r="I7" s="79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J7" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="84" t="s">
         <v>142</v>
-      </c>
-      <c r="K7" s="84" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9643,7 +9663,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="79" t="n">
         <v>5</v>
@@ -9659,19 +9679,19 @@
         <v>4</v>
       </c>
       <c r="G8" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="80" t="s">
         <v>152</v>
-      </c>
-      <c r="H8" s="80" t="s">
-        <v>153</v>
       </c>
       <c r="I8" s="79" t="s">
         <v>11</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K8" s="84" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="IS8" s="85"/>
       <c r="IT8" s="86"/>
@@ -9687,7 +9707,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C9" s="79" t="n">
         <v>5</v>
@@ -9703,25 +9723,25 @@
         <v>4</v>
       </c>
       <c r="G9" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="80" t="s">
         <v>155</v>
-      </c>
-      <c r="H9" s="80" t="s">
-        <v>156</v>
       </c>
       <c r="I9" s="79" t="s">
         <v>11</v>
       </c>
       <c r="J9" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="K9" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="IS9" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="K9" s="84" t="s">
-        <v>117</v>
-      </c>
-      <c r="IS9" s="90" t="s">
+      <c r="IT9" s="91" t="s">
         <v>158</v>
-      </c>
-      <c r="IT9" s="91" t="s">
-        <v>159</v>
       </c>
       <c r="IU9" s="92" t="n">
         <v>0.9</v>
@@ -9752,7 +9772,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="79" t="n">
         <v>1</v>
@@ -9768,23 +9788,23 @@
         <v>3</v>
       </c>
       <c r="G10" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="H10" s="80" t="s">
+      <c r="I10" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="83" t="s">
         <v>162</v>
       </c>
-      <c r="I10" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="83" t="s">
-        <v>163</v>
-      </c>
       <c r="K10" s="84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="IS10" s="90"/>
       <c r="IT10" s="91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="IU10" s="92" t="n">
         <v>0.7</v>
@@ -9829,7 +9849,7 @@
       <c r="K11" s="106"/>
       <c r="IS11" s="90"/>
       <c r="IT11" s="91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="IU11" s="92" t="n">
         <v>0.5</v>
@@ -9874,7 +9894,7 @@
       <c r="K12" s="106"/>
       <c r="IS12" s="90"/>
       <c r="IT12" s="91" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="IU12" s="92" t="n">
         <v>0.3</v>
@@ -9919,7 +9939,7 @@
       <c r="K13" s="106"/>
       <c r="IS13" s="90"/>
       <c r="IT13" s="91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="IU13" s="113" t="n">
         <v>0.1</v>
@@ -10002,19 +10022,19 @@
       <c r="IT15" s="126"/>
       <c r="IU15" s="126"/>
       <c r="IV15" s="91" t="s">
+        <v>164</v>
+      </c>
+      <c r="IW15" s="91" t="s">
         <v>165</v>
       </c>
-      <c r="IW15" s="91" t="s">
+      <c r="IX15" s="91" t="s">
         <v>166</v>
       </c>
-      <c r="IX15" s="91" t="s">
-        <v>167</v>
-      </c>
       <c r="IY15" s="91" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="IZ15" s="128" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10038,7 +10058,7 @@
       <c r="IT16" s="126"/>
       <c r="IU16" s="92"/>
       <c r="IV16" s="129" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="IW16" s="129"/>
       <c r="IX16" s="129"/>
@@ -10115,7 +10135,7 @@
       <c r="J19" s="123"/>
       <c r="K19" s="124"/>
       <c r="IS19" s="133" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="IT19" s="133"/>
       <c r="IU19" s="131"/>
@@ -10143,12 +10163,12 @@
       <c r="J20" s="123"/>
       <c r="K20" s="124"/>
       <c r="IS20" s="134" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="IT20" s="135"/>
       <c r="IU20" s="131"/>
       <c r="IV20" s="136" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="IW20" s="136"/>
       <c r="IX20" s="136"/>
@@ -10173,12 +10193,12 @@
       <c r="J21" s="123"/>
       <c r="K21" s="124"/>
       <c r="IS21" s="134" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="IT21" s="137"/>
       <c r="IU21" s="131"/>
       <c r="IV21" s="136" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="IW21" s="136"/>
       <c r="IX21" s="136"/>
@@ -10203,12 +10223,12 @@
       <c r="J22" s="123"/>
       <c r="K22" s="124"/>
       <c r="IS22" s="134" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="IT22" s="138"/>
       <c r="IU22" s="131"/>
       <c r="IV22" s="136" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="IW22" s="136"/>
       <c r="IX22" s="136"/>
